--- a/Daisy-xls/ResearchPages/research-soft-tissue-sarcoma.xlsx
+++ b/Daisy-xls/ResearchPages/research-soft-tissue-sarcoma.xlsx
@@ -158,7 +158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -181,6 +181,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -233,9 +248,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -247,6 +259,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -554,7 +569,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -564,11 +579,11 @@
     <col min="3" max="3" width="63.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="44.42578125" style="6" customWidth="1"/>
     <col min="5" max="5" width="45.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -589,11 +604,13 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="20">
+        <v>488736</v>
+      </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
@@ -606,11 +623,13 @@
       </c>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="20">
+        <v>487344</v>
+      </c>
       <c r="C3" s="8" t="s">
         <v>25</v>
       </c>
@@ -623,11 +642,13 @@
       </c>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="20">
+        <v>885683</v>
+      </c>
       <c r="C4" s="13" t="s">
         <v>12</v>
       </c>
@@ -639,11 +660,13 @@
         <v>41997</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="20">
+        <v>694946</v>
+      </c>
       <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
@@ -655,11 +678,13 @@
         <v>41662</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="20">
+        <v>565077</v>
+      </c>
       <c r="C6" s="13" t="s">
         <v>14</v>
       </c>
@@ -671,15 +696,17 @@
         <v>41396</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="20">
+        <v>476523</v>
+      </c>
       <c r="C7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -689,11 +716,13 @@
         <v>41254</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="20">
+        <v>253980</v>
+      </c>
       <c r="C8" s="13" t="s">
         <v>10</v>
       </c>
@@ -705,11 +734,13 @@
         <v>40988</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="20">
+        <v>13817</v>
+      </c>
       <c r="C9" s="13" t="s">
         <v>16</v>
       </c>
@@ -717,15 +748,17 @@
         <v>17</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <v>40533.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="20">
+        <v>13152</v>
+      </c>
       <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
@@ -735,15 +768,17 @@
       <c r="E10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>40498</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="20">
+        <v>14010</v>
+      </c>
       <c r="C11" s="7" t="s">
         <v>6</v>
       </c>
